--- a/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Feb_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Multi Asset Allocation Fund/Nippon India Multi Asset Allocation Fund_Feb_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3199,317 +3199,323 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>14740454USD</t>
+          <t>NXST23</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>US4642863926</t>
+          <t>INE0NDH07035</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>iShares MSCI World ETF</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>7.72% Nexus Select Trust - REIT**</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CRISIL AAA</t>
+        </is>
+      </c>
       <c r="E87" t="n">
-        <v>411780</v>
+        <v>5000</v>
       </c>
       <c r="F87" t="n">
-        <v>57583.71</v>
+        <v>5001.6</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1163</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
+        <v>0.0101</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0793</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GOI5081</t>
+          <t>HLIC23</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IN0020230036</t>
+          <t>INE795G08043</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>7.17% Government of India</t>
+          <t>8.1% HDFC Life Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9500000</v>
+        <v>5000</v>
       </c>
       <c r="F88" t="n">
-        <v>9698.719999999999</v>
+        <v>4990.31</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0196</v>
+        <v>0.0101</v>
       </c>
       <c r="H88" t="n">
-        <v>0.06790400000000001</v>
+        <v>0.081415</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GOI4976</t>
+          <t>POWF534</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IN0020220151</t>
+          <t>INE134E08ND3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7.26% Government of India</t>
+          <t>7.27% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6000000</v>
+        <v>5000</v>
       </c>
       <c r="F89" t="n">
-        <v>6174.2</v>
+        <v>4961.63</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0125</v>
+        <v>0.01</v>
       </c>
       <c r="H89" t="n">
-        <v>0.06894400000000001</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GOI4808</t>
+          <t>GOSL409</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IN2220220122</t>
+          <t>INE233A08154</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>7.76% State Government Securities</t>
+          <t>8.1% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5000000</v>
+        <v>4500</v>
       </c>
       <c r="F90" t="n">
-        <v>5165.56</v>
+        <v>4495.59</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0104</v>
+        <v>0.0091</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07155</v>
+        <v>0.081414</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>BAFL936</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE296A07TD7</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>7.98% Bajaj Finance Limited**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2500000</v>
+        <v>3500</v>
       </c>
       <c r="F91" t="n">
-        <v>2553.38</v>
+        <v>3525.99</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0052</v>
+        <v>0.0071</v>
       </c>
       <c r="H91" t="n">
-        <v>0.068953</v>
+        <v>0.07754999999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GOI6471</t>
+          <t>SIDB519</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IN2920240453</t>
+          <t>INE556F08KI9</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.17% State Government Securities</t>
+          <t>7.44% Small Industries Dev Bank of India</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2500000</v>
+        <v>3000</v>
       </c>
       <c r="F92" t="n">
-        <v>2501.04</v>
+        <v>2990.09</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0051</v>
+        <v>0.006</v>
       </c>
       <c r="H92" t="n">
-        <v>0.072922</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GOI3025</t>
+          <t>ICHF234</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IN2920200622</t>
+          <t>INE071G07736</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>6.85% State Government Securities</t>
+          <t>7.94% ICICI Home Finance Company Limited**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1000000</v>
+        <v>2500</v>
       </c>
       <c r="F93" t="n">
-        <v>989.99</v>
+        <v>2509.09</v>
       </c>
       <c r="G93" t="n">
-        <v>0.002</v>
+        <v>0.0051</v>
       </c>
       <c r="H93" t="n">
-        <v>0.071827</v>
+        <v>0.078222</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NXST23</t>
+          <t>TFSI48</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INE0NDH07035</t>
+          <t>INE692Q07548</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>7.72% Nexus Select Trust - REIT**</t>
+          <t>8.06% Toyota Financial Services India Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F94" t="n">
-        <v>5001.6</v>
+        <v>2508.17</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0101</v>
+        <v>0.0051</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0793</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HLIC23</t>
+          <t>LICH671</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INE795G08043</t>
+          <t>INE115A07QM6</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8.1% HDFC Life Insurance Company Limited**</t>
+          <t>7.77% LIC Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="F95" t="n">
-        <v>4990.31</v>
+        <v>2505.55</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0101</v>
+        <v>0.0051</v>
       </c>
       <c r="H95" t="n">
-        <v>0.081415</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>POWF534</t>
+          <t>TWAT25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INE134E08ND3</t>
+          <t>INE280A08015</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.27% Power Finance Corporation Limited**</t>
+          <t>7.75% Titan Company Limited**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3518,100 +3524,100 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F96" t="n">
-        <v>4961.63</v>
+        <v>2497.29</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0741</v>
+        <v>0.07725</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GOSL409</t>
+          <t>NBAR701</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INE233A08154</t>
+          <t>INE261F08DX0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>8.1% Godrej Industries Limited**</t>
+          <t>7.58% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="F97" t="n">
-        <v>4495.59</v>
+        <v>2496.69</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0091</v>
+        <v>0.005</v>
       </c>
       <c r="H97" t="n">
-        <v>0.081414</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BAFL936</t>
+          <t>IIFC67</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INE296A07TD7</t>
+          <t>INE787H08154</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7.98% Bajaj Finance Limited**</t>
+          <t>7.47% India Infrastructure Fin Co Ltd**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="F98" t="n">
-        <v>3525.99</v>
+        <v>2488.45</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0071</v>
+        <v>0.005</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07754999999999999</v>
+        <v>0.07642500000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SIDB519</t>
+          <t>HDFB886</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INE556F08KI9</t>
+          <t>INE040A08849</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>7.44% Small Industries Dev Bank of India</t>
+          <t>6.43% HDFC Bank Limited</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3620,579 +3626,173 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="F99" t="n">
-        <v>2990.09</v>
+        <v>2477.34</v>
       </c>
       <c r="G99" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0785</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICHF234</t>
+          <t>MMFS1188</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INE071G07736</t>
+          <t>INE774D07VF8</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>7.94% ICICI Home Finance Company Limited**</t>
+          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F100" t="n">
-        <v>2509.09</v>
+        <v>1514.67</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0051</v>
+        <v>0.0031</v>
       </c>
       <c r="H100" t="n">
-        <v>0.078222</v>
+        <v>0.07035</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TFSI48</t>
+          <t>SBAI203</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INE692Q07548</t>
+          <t>INE062A08256</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8.06% Toyota Financial Services India Limited**</t>
+          <t>6.24% State Bank of India</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="F101" t="n">
-        <v>2508.17</v>
+        <v>493.89</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0051</v>
+        <v>0.001</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0794</v>
+        <v>0.064986</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LICH671</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE115A07QM6</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>7.77% LIC Housing Finance Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="F102" t="n">
-        <v>2505.55</v>
+        <v>898.28</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0051</v>
+        <v>0.0018</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0767</v>
+        <v>0.077649</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TWAT25</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE280A08015</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7.75% Titan Company Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="F103" t="n">
-        <v>2497.29</v>
+        <v>837.01</v>
       </c>
       <c r="G103" t="n">
-        <v>0.005</v>
+        <v>0.0017</v>
       </c>
       <c r="H103" t="n">
-        <v>0.07725</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>NBAR701</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE261F08DX0</t>
+          <t>INE062A08256</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.58% National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2496.69</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.07630000000000001</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>IIFC67</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>INE787H08154</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>7.47% India Infrastructure Fin Co Ltd**</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2488.45</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.07642500000000001</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>HDFB886</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>INE040A08849</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>6.43% HDFC Bank Limited</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>250</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2477.34</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.0785</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MMFS1188</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>INE774D07VF8</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1514.67</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.07035</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SBAI203</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>INE062A08256</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>6.24% State Bank of India</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>50</v>
-      </c>
-      <c r="F108" t="n">
-        <v>493.89</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.064986</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F109" t="n">
-        <v>898.28</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.077649</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F110" t="n">
-        <v>837.01</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.0772</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>BMGB51ME</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>INF204KB17I5</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Nippon India ETF Gold Bees</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="n">
-        <v>86261865</v>
-      </c>
-      <c r="F111" t="n">
-        <v>61332.19</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.1239</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>149758</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>INF204KC1402</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Nippon India Silver ETF</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="n">
-        <v>16869201</v>
-      </c>
-      <c r="F112" t="n">
-        <v>15259.88</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0308</v>
-      </c>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FUTCOM_GOLD_04/04/2025</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>3800</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3200.32</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FUTCOM_CRUDEOIL_19/03/2025</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Others</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>21000</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1284.78</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>INE062A08256</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
           <t>6.24% SBI NCDSr2 BSIII Tier2 (M21/9/30)CALL19/9/25</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D104" t="n">
         <v>0.0832185752895</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
